--- a/modulos/data/masa_semilla_thepol.xlsx
+++ b/modulos/data/masa_semilla_thepol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dsfernandez/Documents/GitHub/bioestadisticas/modulos/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D29F8C-4099-8E49-87CA-B01E38969B8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4872F68C-0E99-6343-9C78-075F49873F29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36160" yWindow="1700" windowWidth="28040" windowHeight="16440" xr2:uid="{91E86C63-E283-0644-BE4C-22E6A4C93F92}"/>
   </bookViews>
@@ -34,19 +34,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>masa_g</t>
   </si>
   <si>
     <t>year</t>
   </si>
+  <si>
+    <t>long_mm</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -56,6 +59,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -81,9 +90,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,3916 +408,5380 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB8635C1-2E32-D74C-A244-A803ABA9D930}">
-  <dimension ref="A1:B488"/>
+  <dimension ref="A1:C488"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A492" sqref="A492"/>
+    <sheetView tabSelected="1" topLeftCell="A217" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C227" sqref="C227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2016</v>
       </c>
       <c r="B2" s="1">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" s="1">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2016</v>
       </c>
       <c r="B3" s="1">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" s="1">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2016</v>
       </c>
       <c r="B4" s="1">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" s="1">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2016</v>
       </c>
       <c r="B5" s="1">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" s="1">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2016</v>
       </c>
       <c r="B6" s="1">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6" s="1">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2016</v>
       </c>
       <c r="B7" s="1">
         <v>0.28000000000000003</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7" s="1">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2016</v>
       </c>
       <c r="B8" s="1">
         <v>8.8999999999999996E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8" s="1">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2016</v>
       </c>
       <c r="B9" s="1">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9" s="1">
+        <v>11.05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2016</v>
       </c>
       <c r="B10" s="1">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10" s="1">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2016</v>
       </c>
       <c r="B11" s="1">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C11" s="1">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2016</v>
       </c>
       <c r="B12" s="1">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C12" s="1">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2016</v>
       </c>
       <c r="B13" s="1">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C13" s="1">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2016</v>
       </c>
       <c r="B14" s="1">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C14" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2016</v>
       </c>
       <c r="B15" s="1">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C15" s="1">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2016</v>
       </c>
       <c r="B16" s="1">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16" s="1">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2016</v>
       </c>
       <c r="B17" s="1">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17" s="1">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2016</v>
       </c>
       <c r="B18" s="1">
         <v>0.30299999999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18" s="1">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2016</v>
       </c>
       <c r="B19" s="1">
         <v>0.254</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19" s="1">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2016</v>
       </c>
       <c r="B20" s="1">
         <v>0.13700000000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20" s="1">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2016</v>
       </c>
       <c r="B21" s="1">
         <v>0.27400000000000002</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21" s="1">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2016</v>
       </c>
       <c r="B22" s="1">
         <v>0.316</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C22" s="1">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2016</v>
       </c>
       <c r="B23" s="1">
         <v>0.309</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C23" s="1">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2016</v>
       </c>
       <c r="B24" s="1">
         <v>0.314</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C24" s="1">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2016</v>
       </c>
       <c r="B25" s="1">
         <v>0.32600000000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C25" s="1">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2016</v>
       </c>
       <c r="B26" s="1">
         <v>0.28799999999999998</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C26" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2016</v>
       </c>
       <c r="B27" s="1">
         <v>0.28799999999999998</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C27" s="1">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2016</v>
       </c>
       <c r="B28" s="1">
         <v>0.29299999999999998</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C28" s="1">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2016</v>
       </c>
       <c r="B29" s="1">
         <v>0.30299999999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C29" s="1">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2016</v>
       </c>
       <c r="B30" s="1">
         <v>0.14799999999999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C30" s="1">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2016</v>
       </c>
       <c r="B31" s="1">
         <v>0.28199999999999997</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C31" s="1">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2016</v>
       </c>
       <c r="B32" s="1">
         <v>0.28699999999999998</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C32" s="1">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2016</v>
       </c>
       <c r="B33" s="1">
         <v>0.28899999999999998</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C33" s="1">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2016</v>
       </c>
       <c r="B34" s="1">
         <v>0.308</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C34" s="1">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2016</v>
       </c>
       <c r="B35" s="1">
         <v>0.32400000000000001</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C35" s="1">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2016</v>
       </c>
       <c r="B36" s="1">
         <v>0.316</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C36" s="1">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2016</v>
       </c>
       <c r="B37" s="1">
         <v>0.105</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C37" s="1">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2016</v>
       </c>
       <c r="B38" s="1">
         <v>0.32800000000000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C38" s="1">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2016</v>
       </c>
       <c r="B39" s="1">
         <v>0.30599999999999999</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C39" s="2">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2016</v>
       </c>
       <c r="B40" s="1">
         <v>0.27700000000000002</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C40" s="2">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2016</v>
       </c>
       <c r="B41" s="1">
         <v>0.157</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C41" s="2">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2016</v>
       </c>
       <c r="B42" s="1">
         <v>0.27500000000000002</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C42" s="2">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2016</v>
       </c>
       <c r="B43" s="1">
         <v>0.27200000000000002</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C43" s="2">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2016</v>
       </c>
       <c r="B44" s="1">
         <v>0.30599999999999999</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C44" s="2">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2016</v>
       </c>
       <c r="B45" s="1">
         <v>0.30199999999999999</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C45" s="2">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2016</v>
       </c>
       <c r="B46" s="1">
         <v>0.247</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C46" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2016</v>
       </c>
       <c r="B47" s="1">
         <v>0.11899999999999999</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C47" s="2">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2016</v>
       </c>
       <c r="B48" s="1">
         <v>0.23699999999999999</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C48" s="2">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2016</v>
       </c>
       <c r="B49" s="1">
         <v>0.251</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C49" s="2">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2016</v>
       </c>
       <c r="B50" s="1">
         <v>0.28299999999999997</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C50" s="1">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2016</v>
       </c>
       <c r="B51" s="1">
         <v>0.28499999999999998</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C51" s="1">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2016</v>
       </c>
       <c r="B52" s="1">
         <v>0.29799999999999999</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C52" s="1">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2016</v>
       </c>
       <c r="B53" s="1">
         <v>0.14199999999999999</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C53" s="1">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2016</v>
       </c>
       <c r="B54" s="1">
         <v>0.26200000000000001</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C54" s="1">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2016</v>
       </c>
       <c r="B55" s="1">
         <v>0.307</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C55" s="1">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2016</v>
       </c>
       <c r="B56" s="1">
         <v>0.24199999999999999</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C56" s="1">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2016</v>
       </c>
       <c r="B57" s="1">
         <v>0.313</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C57" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2016</v>
       </c>
       <c r="B58" s="1">
         <v>0.29199999999999998</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C58" s="1">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2016</v>
       </c>
       <c r="B59" s="1">
         <v>0.26200000000000001</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C59" s="1">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2016</v>
       </c>
       <c r="B60" s="1">
         <v>0.247</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C60" s="1">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2016</v>
       </c>
       <c r="B61" s="1">
         <v>0.26600000000000001</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C61" s="1">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2016</v>
       </c>
       <c r="B62" s="1">
         <v>0.26600000000000001</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C62" s="1">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2016</v>
       </c>
       <c r="B63" s="1">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C63" s="1">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2016</v>
       </c>
       <c r="B64" s="1">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C64" s="1">
+        <v>10.94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2016</v>
       </c>
       <c r="B65" s="1">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C65" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2016</v>
       </c>
       <c r="B66" s="1">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C66" s="1">
+        <v>9.85</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2016</v>
       </c>
       <c r="B67" s="1">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C67" s="1">
+        <v>9.9700000000000006</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>2016</v>
       </c>
       <c r="B68" s="1">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C68" s="1">
+        <v>9.98</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2016</v>
       </c>
       <c r="B69" s="1">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C69" s="1">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2016</v>
       </c>
       <c r="B70" s="1">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C70" s="1">
+        <v>9.85</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>2016</v>
       </c>
       <c r="B71" s="1">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C71" s="1">
+        <v>10.01</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>2016</v>
       </c>
       <c r="B72" s="1">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C72" s="1">
+        <v>9.77</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>2016</v>
       </c>
       <c r="B73" s="1">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C73" s="1">
+        <v>9.89</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>2016</v>
       </c>
       <c r="B74" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C74" s="1">
+        <v>9.8699999999999992</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>2016</v>
       </c>
       <c r="B75" s="1">
         <v>0.253</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C75" s="1">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>2016</v>
       </c>
       <c r="B76" s="1">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C76" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>2016</v>
       </c>
       <c r="B77" s="1">
         <v>0.217</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C77" s="1">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>2016</v>
       </c>
       <c r="B78" s="1">
         <v>0.246</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C78" s="1">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>2016</v>
       </c>
       <c r="B79" s="1">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C79" s="1">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>2016</v>
       </c>
       <c r="B80" s="1">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C80" s="1">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>2016</v>
       </c>
       <c r="B81" s="1">
         <v>0.26400000000000001</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C81" s="1">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>2016</v>
       </c>
       <c r="B82" s="1">
         <v>0.24299999999999999</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C82" s="1">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>2016</v>
       </c>
       <c r="B83" s="1">
         <v>0.24299999999999999</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C83" s="1">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>2016</v>
       </c>
       <c r="B84" s="1">
         <v>0.23100000000000001</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C84" s="1">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>2016</v>
       </c>
       <c r="B85" s="1">
         <v>0.20599999999999999</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C85" s="1">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>2016</v>
       </c>
       <c r="B86" s="1">
         <v>0.21099999999999999</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C86" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>2016</v>
       </c>
       <c r="B87" s="1">
         <v>0.20699999999999999</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C87" s="1">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>2016</v>
       </c>
       <c r="B88" s="1">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C88" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>2016</v>
       </c>
       <c r="B89" s="1">
         <v>0.20599999999999999</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C89" s="1">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>2016</v>
       </c>
       <c r="B90" s="1">
         <v>0.214</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C90" s="1">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>2016</v>
       </c>
       <c r="B91" s="1">
         <v>0.222</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C91" s="1">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>2016</v>
       </c>
       <c r="B92" s="1">
         <v>0.219</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C92" s="1">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>2016</v>
       </c>
       <c r="B93" s="1">
         <v>0.218</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C93" s="1">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>2016</v>
       </c>
       <c r="B94" s="1">
         <v>0.21099999999999999</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C94" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>2016</v>
       </c>
       <c r="B95" s="1">
         <v>0.189</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C95" s="1">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>2016</v>
       </c>
       <c r="B96" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C96" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>2016</v>
       </c>
       <c r="B97" s="1">
         <v>0.191</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C97" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>2016</v>
       </c>
       <c r="B98" s="1">
         <v>0.20300000000000001</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C98" s="1">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>2016</v>
       </c>
       <c r="B99" s="1">
         <v>0.224</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C99" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>2016</v>
       </c>
       <c r="B100" s="1">
         <v>0.20799999999999999</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C100" s="1">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>2016</v>
       </c>
       <c r="B101" s="1">
         <v>0.19700000000000001</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C101" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>2016</v>
       </c>
       <c r="B102" s="1">
         <v>0.22500000000000001</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C102" s="1">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>2016</v>
       </c>
       <c r="B103" s="1">
         <v>0.106</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C103" s="1">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>2016</v>
       </c>
       <c r="B104" s="1">
         <v>0.20100000000000001</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C104" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>2016</v>
       </c>
       <c r="B105" s="1">
         <v>0.20100000000000001</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C105" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>2016</v>
       </c>
       <c r="B106" s="1">
         <v>0.20200000000000001</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C106" s="1">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>2016</v>
       </c>
       <c r="B107" s="1">
         <v>0.21099999999999999</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C107" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>2016</v>
       </c>
       <c r="B108" s="1">
         <v>0.217</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C108" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>2016</v>
       </c>
       <c r="B109" s="1">
         <v>0.22500000000000001</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C109" s="1">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>2016</v>
       </c>
       <c r="B110" s="1">
         <v>0.23100000000000001</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C110" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>2016</v>
       </c>
       <c r="B111" s="1">
         <v>0.22600000000000001</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C111" s="1">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>2016</v>
       </c>
       <c r="B112" s="1">
         <v>0.24299999999999999</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C112" s="1">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>2016</v>
       </c>
       <c r="B113" s="1">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C113" s="1">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>2016</v>
       </c>
       <c r="B114" s="1">
         <v>0.20899999999999999</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C114" s="1">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>2016</v>
       </c>
       <c r="B115" s="1">
         <v>0.24399999999999999</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C115" s="1">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>2016</v>
       </c>
       <c r="B116" s="1">
         <v>0.22900000000000001</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C116" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>2016</v>
       </c>
       <c r="B117" s="1">
         <v>0.21099999999999999</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C117" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>2016</v>
       </c>
       <c r="B118" s="1">
         <v>0.251</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C118" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>2016</v>
       </c>
       <c r="B119" s="1">
         <v>0.218</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C119" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>2016</v>
       </c>
       <c r="B120" s="1">
         <v>0.23899999999999999</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C120" s="2">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>2016</v>
       </c>
       <c r="B121" s="1">
         <v>0.20799999999999999</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C121" s="2">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>2016</v>
       </c>
       <c r="B122" s="1">
         <v>9.2999999999999999E-2</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C122" s="2">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>2016</v>
       </c>
       <c r="B123" s="1">
         <v>0.24199999999999999</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C123" s="2">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>2016</v>
       </c>
       <c r="B124" s="1">
         <v>0.22600000000000001</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C124" s="2">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>2016</v>
       </c>
       <c r="B125" s="1">
         <v>0.214</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C125" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>2016</v>
       </c>
       <c r="B126" s="1">
         <v>0.23599999999999999</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C126" s="2">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>2016</v>
       </c>
       <c r="B127" s="1">
         <v>0.23400000000000001</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C127" s="2">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>2016</v>
       </c>
       <c r="B128" s="1">
         <v>0.20499999999999999</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C128" s="2">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>2016</v>
       </c>
       <c r="B129" s="1">
         <v>0.215</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C129" s="2">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>2016</v>
       </c>
       <c r="B130" s="1">
         <v>0.218</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C130" s="2">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>2016</v>
       </c>
       <c r="B131" s="1">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C131" s="2">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>2016</v>
       </c>
       <c r="B132" s="1">
         <v>0.21199999999999999</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C132" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>2016</v>
       </c>
       <c r="B133" s="1">
         <v>0.22900000000000001</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C133" s="1">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>2016</v>
       </c>
       <c r="B134" s="1">
         <v>0.21299999999999999</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C134" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>2016</v>
       </c>
       <c r="B135" s="1">
         <v>0.26200000000000001</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C135" s="1">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>2016</v>
       </c>
       <c r="B136" s="1">
         <v>0.22700000000000001</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C136" s="1">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>2016</v>
       </c>
       <c r="B137" s="1">
         <v>0.252</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C137" s="1">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>2016</v>
       </c>
       <c r="B138" s="1">
         <v>0.25700000000000001</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C138" s="1">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>2016</v>
       </c>
       <c r="B139" s="1">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C139" s="1">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>2016</v>
       </c>
       <c r="B140" s="1">
         <v>0.27300000000000002</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C140" s="1">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>2016</v>
       </c>
       <c r="B141" s="1">
         <v>0.26200000000000001</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C141" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>2016</v>
       </c>
       <c r="B142" s="1">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C142" s="1">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>2016</v>
       </c>
       <c r="B143" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C143" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>2016</v>
       </c>
       <c r="B144" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C144" s="1">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>2016</v>
       </c>
       <c r="B145" s="1">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C145" s="1">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>2016</v>
       </c>
       <c r="B146" s="1">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C146" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>2016</v>
       </c>
       <c r="B147" s="1">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C147" s="1">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>2016</v>
       </c>
       <c r="B148" s="1">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C148" s="1">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>2016</v>
       </c>
       <c r="B149" s="1">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C149" s="1">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>2016</v>
       </c>
       <c r="B150" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C150" s="1">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>2016</v>
       </c>
       <c r="B151" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C151" s="1">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>2016</v>
       </c>
       <c r="B152" s="1">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C152" s="1">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>2016</v>
       </c>
       <c r="B153" s="1">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C153" s="1">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>2016</v>
       </c>
       <c r="B154" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C154" s="1">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>2016</v>
       </c>
       <c r="B155" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C155" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>2016</v>
       </c>
       <c r="B156" s="1">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C156" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>2016</v>
       </c>
       <c r="B157" s="1">
         <v>0.157</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C157" s="1">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>2016</v>
       </c>
       <c r="B158" s="1">
         <v>0.17299999999999999</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C158" s="1">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>2016</v>
       </c>
       <c r="B159" s="1">
         <v>0.21099999999999999</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C159" s="1">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>2016</v>
       </c>
       <c r="B160" s="1">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C160" s="1">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>2016</v>
       </c>
       <c r="B161" s="1">
         <v>0.19700000000000001</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C161" s="1">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>2016</v>
       </c>
       <c r="B162" s="1">
         <v>0.182</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C162" s="1">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>2016</v>
       </c>
       <c r="B163" s="1">
         <v>0.192</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C163" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>2016</v>
       </c>
       <c r="B164" s="1">
         <v>0.123</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C164" s="1">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>2016</v>
       </c>
       <c r="B165" s="1">
         <v>3.2000000000000001E-2</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C165" s="1">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>2016</v>
       </c>
       <c r="B166" s="1">
         <v>0.187</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C166" s="1">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>2016</v>
       </c>
       <c r="B167" s="1">
         <v>0.18099999999999999</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C167" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>2016</v>
       </c>
       <c r="B168" s="1">
         <v>0.214</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C168" s="1">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>2016</v>
       </c>
       <c r="B169" s="1">
         <v>0.23400000000000001</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C169" s="1">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>2016</v>
       </c>
       <c r="B170" s="1">
         <v>0.19600000000000001</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C170" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>2016</v>
       </c>
       <c r="B171" s="1">
         <v>0.19700000000000001</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C171" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>2016</v>
       </c>
       <c r="B172" s="1">
         <v>0.20300000000000001</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C172" s="1">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>2016</v>
       </c>
       <c r="B173" s="1">
         <v>0.247</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C173" s="1">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>2016</v>
       </c>
       <c r="B174" s="1">
         <v>0.20200000000000001</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C174" s="1">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>2016</v>
       </c>
       <c r="B175" s="1">
         <v>0.20399999999999999</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C175" s="1">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>2016</v>
       </c>
       <c r="B176" s="1">
         <v>0.21099999999999999</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C176" s="1">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>2016</v>
       </c>
       <c r="B177" s="1">
         <v>0.20599999999999999</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C177" s="1">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>2016</v>
       </c>
       <c r="B178" s="1">
         <v>0.215</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C178" s="1">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>2016</v>
       </c>
       <c r="B179" s="1">
         <v>0.23300000000000001</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C179" s="1">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>2016</v>
       </c>
       <c r="B180" s="1">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C180" s="1">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>2016</v>
       </c>
       <c r="B181" s="1">
         <v>0.19800000000000001</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C181" s="1">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>2016</v>
       </c>
       <c r="B182" s="1">
         <v>0.23300000000000001</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C182" s="1">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>2016</v>
       </c>
       <c r="B183" s="1">
         <v>0.215</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C183" s="1">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>2016</v>
       </c>
       <c r="B184" s="1">
         <v>0.217</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C184" s="1">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>2016</v>
       </c>
       <c r="B185" s="1">
         <v>0.219</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C185" s="1">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>2016</v>
       </c>
       <c r="B186" s="1">
         <v>0.222</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C186" s="1">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>2016</v>
       </c>
       <c r="B187" s="1">
         <v>0.19900000000000001</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C187" s="1">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>2016</v>
       </c>
       <c r="B188" s="1">
         <v>0.188</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C188" s="1">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>2016</v>
       </c>
       <c r="B189" s="1">
         <v>0.21199999999999999</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C189" s="1">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>2016</v>
       </c>
       <c r="B190" s="1">
         <v>0.114</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C190" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>2016</v>
       </c>
       <c r="B191" s="1">
         <v>0.192</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C191" s="1">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>2016</v>
       </c>
       <c r="B192" s="1">
         <v>0.20599999999999999</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C192" s="1">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>2016</v>
       </c>
       <c r="B193" s="1">
         <v>0.216</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C193" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>2016</v>
       </c>
       <c r="B194" s="1">
         <v>0.10299999999999999</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C194" s="1">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>2016</v>
       </c>
       <c r="B195" s="1">
         <v>0.187</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C195" s="1">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>2016</v>
       </c>
       <c r="B196" s="1">
         <v>0.20899999999999999</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C196" s="1">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>2016</v>
       </c>
       <c r="B197" s="1">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C197" s="1">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>2016</v>
       </c>
       <c r="B198" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C198" s="2">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>2016</v>
       </c>
       <c r="B199" s="1">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C199" s="2">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>2016</v>
       </c>
       <c r="B200" s="1">
         <v>0.23200000000000001</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C200" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>2016</v>
       </c>
       <c r="B201" s="1">
         <v>0.23499999999999999</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C201" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>2016</v>
       </c>
       <c r="B202" s="1">
         <v>0.19600000000000001</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C202" s="2">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>2016</v>
       </c>
       <c r="B203" s="1">
         <v>0.218</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C203" s="2">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>2016</v>
       </c>
       <c r="B204" s="1">
         <v>0.219</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C204" s="2">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>2016</v>
       </c>
       <c r="B205" s="1">
         <v>0.192</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C205" s="2">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>2016</v>
       </c>
       <c r="B206" s="1">
         <v>8.2000000000000003E-2</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C206" s="2">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>2016</v>
       </c>
       <c r="B207" s="1">
         <v>0.214</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C207" s="2">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>2016</v>
       </c>
       <c r="B208" s="1">
         <v>0.20300000000000001</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C208" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>2016</v>
       </c>
       <c r="B209" s="1">
         <v>0.193</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C209" s="2">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>2016</v>
       </c>
       <c r="B210" s="1">
         <v>0.20499999999999999</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C210" s="2">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>2016</v>
       </c>
       <c r="B211" s="1">
         <v>0.23200000000000001</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C211" s="2">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>2016</v>
       </c>
       <c r="B212" s="1">
         <v>0.19700000000000001</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C212" s="2">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>2016</v>
       </c>
       <c r="B213" s="1">
         <v>0.221</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C213" s="1">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>2016</v>
       </c>
       <c r="B214" s="1">
         <v>0.216</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C214" s="1">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>2016</v>
       </c>
       <c r="B215" s="1">
         <v>0.20699999999999999</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C215" s="1">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>2016</v>
       </c>
       <c r="B216" s="1">
         <v>8.5000000000000006E-2</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C216" s="1">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>2016</v>
       </c>
       <c r="B217" s="1">
         <v>0.221</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C217" s="1">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>2016</v>
       </c>
       <c r="B218" s="1">
         <v>0.20399999999999999</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C218" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>2016</v>
       </c>
       <c r="B219" s="1">
         <v>0.223</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C219" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>2016</v>
       </c>
       <c r="B220" s="1">
         <v>0.23699999999999999</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C220" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>2016</v>
       </c>
       <c r="B221" s="1">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C221" s="1">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>2016</v>
       </c>
       <c r="B222" s="1">
         <v>0.20300000000000001</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C222" s="1">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>2016</v>
       </c>
       <c r="B223" s="1">
         <v>0.186</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C223" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>2016</v>
       </c>
       <c r="B224" s="1">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C224" s="1">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>2017</v>
       </c>
       <c r="B225" s="1">
         <v>0.20200000000000001</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C225" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>2017</v>
       </c>
       <c r="B226" s="1">
         <v>0.191</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C226" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>2017</v>
       </c>
       <c r="B227" s="1">
         <v>0.192</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C227" s="1">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>2017</v>
       </c>
       <c r="B228" s="1">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C228" s="1">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>2017</v>
       </c>
       <c r="B229" s="1">
         <v>0.13600000000000001</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C229" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>2017</v>
       </c>
       <c r="B230" s="1">
         <v>0.184</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C230" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>2017</v>
       </c>
       <c r="B231" s="1">
         <v>0.18099999999999999</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C231" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>2017</v>
       </c>
       <c r="B232" s="1">
         <v>0.18099999999999999</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C232" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>2017</v>
       </c>
       <c r="B233" s="1">
         <v>0.19700000000000001</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C233" s="1">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>2017</v>
       </c>
       <c r="B234" s="1">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C234" s="1">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>2017</v>
       </c>
       <c r="B235" s="1">
         <v>0.20300000000000001</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C235" s="1">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>2017</v>
       </c>
       <c r="B236" s="1">
         <v>0.23100000000000001</v>
       </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C236" s="1">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>2017</v>
       </c>
       <c r="B237" s="1">
         <v>0.218</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C237" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>2017</v>
       </c>
       <c r="B238" s="1">
         <v>0.22900000000000001</v>
       </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C238" s="1">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>2017</v>
       </c>
       <c r="B239" s="1">
         <v>0.21299999999999999</v>
       </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C239" s="1">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>2017</v>
       </c>
       <c r="B240" s="1">
         <v>0.246</v>
       </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C240" s="1">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>2017</v>
       </c>
       <c r="B241" s="1">
         <v>0.224</v>
       </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C241" s="1">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>2017</v>
       </c>
       <c r="B242" s="1">
         <v>0.192</v>
       </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C242" s="1">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>2017</v>
       </c>
       <c r="B243" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C243" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>2017</v>
       </c>
       <c r="B244" s="1">
         <v>0.16800000000000001</v>
       </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C244" s="1">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>2017</v>
       </c>
       <c r="B245" s="1">
         <v>0.218</v>
       </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C245" s="1">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>2017</v>
       </c>
       <c r="B246" s="1">
         <v>0.189</v>
       </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C246" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>2017</v>
       </c>
       <c r="B247" s="1">
         <v>0.19500000000000001</v>
       </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C247" s="1">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>2017</v>
       </c>
       <c r="B248" s="1">
         <v>0.214</v>
       </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C248" s="1">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>2017</v>
       </c>
       <c r="B249" s="1">
         <v>0.19600000000000001</v>
       </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C249" s="1">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>2017</v>
       </c>
       <c r="B250" s="1">
         <v>0.19500000000000001</v>
       </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C250" s="1">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>2017</v>
       </c>
       <c r="B251" s="1">
         <v>0.193</v>
       </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C251" s="1">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>2017</v>
       </c>
       <c r="B252" s="1">
         <v>0.188</v>
       </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C252" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>2017</v>
       </c>
       <c r="B253" s="1">
         <v>0.222</v>
       </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C253" s="1">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>2017</v>
       </c>
       <c r="B254" s="1">
         <v>0.20899999999999999</v>
       </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C254" s="1">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>2017</v>
       </c>
       <c r="B255" s="1">
         <v>0.20300000000000001</v>
       </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C255" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>2017</v>
       </c>
       <c r="B256" s="1">
         <v>0.19700000000000001</v>
       </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C256" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>2017</v>
       </c>
       <c r="B257" s="1">
         <v>0.20300000000000001</v>
       </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C257" s="1">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>2017</v>
       </c>
       <c r="B258" s="1">
         <v>0.20599999999999999</v>
       </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C258" s="1">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>2017</v>
       </c>
       <c r="B259" s="1">
         <v>0.19600000000000001</v>
       </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C259" s="1">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>2017</v>
       </c>
       <c r="B260" s="1">
         <v>0.22800000000000001</v>
       </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C260" s="1">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>2017</v>
       </c>
       <c r="B261" s="1">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C261" s="1">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>2017</v>
       </c>
       <c r="B262" s="1">
         <v>0.191</v>
       </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C262" s="1">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>2017</v>
       </c>
       <c r="B263" s="1">
         <v>0.217</v>
       </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C263" s="1">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>2017</v>
       </c>
       <c r="B264" s="1">
         <v>0.22600000000000001</v>
       </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C264" s="1">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>2017</v>
       </c>
       <c r="B265" s="1">
         <v>0.20599999999999999</v>
       </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C265" s="1">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>2017</v>
       </c>
       <c r="B266" s="1">
         <v>0.186</v>
       </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C266" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>2017</v>
       </c>
       <c r="B267" s="1">
         <v>0.20699999999999999</v>
       </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C267" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>2017</v>
       </c>
       <c r="B268" s="1">
         <v>0.216</v>
       </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C268" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>2017</v>
       </c>
       <c r="B269" s="1">
         <v>0.223</v>
       </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C269" s="1">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>2017</v>
       </c>
       <c r="B270" s="1">
         <v>0.23300000000000001</v>
       </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C270" s="1">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>2017</v>
       </c>
       <c r="B271" s="1">
         <v>0.21299999999999999</v>
       </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C271" s="1">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>2017</v>
       </c>
       <c r="B272" s="1">
         <v>0.22500000000000001</v>
       </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C272" s="1">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>2017</v>
       </c>
       <c r="B273" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C273" s="1">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>2017</v>
       </c>
       <c r="B274" s="1">
         <v>0.21199999999999999</v>
       </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C274" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>2017</v>
       </c>
       <c r="B275" s="1">
         <v>0.23899999999999999</v>
       </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C275" s="1">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>2017</v>
       </c>
       <c r="B276" s="1">
         <v>0.23100000000000001</v>
       </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C276" s="1">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>2017</v>
       </c>
       <c r="B277" s="1">
         <v>0.218</v>
       </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C277" s="1">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>2017</v>
       </c>
       <c r="B278" s="1">
         <v>0.252</v>
       </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C278" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>2017</v>
       </c>
       <c r="B279" s="1">
         <v>8.4000000000000005E-2</v>
       </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C279" s="1">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>2017</v>
       </c>
       <c r="B280" s="1">
         <v>0.24199999999999999</v>
       </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C280" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>2017</v>
       </c>
       <c r="B281" s="1">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C281" s="1">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>2017</v>
       </c>
       <c r="B282" s="1">
         <v>0.20699999999999999</v>
       </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C282" s="1">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>2017</v>
       </c>
       <c r="B283" s="1">
         <v>0.214</v>
       </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C283" s="1">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>2017</v>
       </c>
       <c r="B284" s="1">
         <v>0.187</v>
       </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C284" s="1">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>2017</v>
       </c>
       <c r="B285" s="1">
         <v>0.20899999999999999</v>
       </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C285" s="1">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>2017</v>
       </c>
       <c r="B286" s="1">
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C286" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>2017</v>
       </c>
       <c r="B287" s="1">
         <v>0.186</v>
       </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C287" s="1">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>2017</v>
       </c>
       <c r="B288" s="1">
         <v>0.17899999999999999</v>
       </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C288" s="1">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>2017</v>
       </c>
       <c r="B289" s="1">
         <v>0.19500000000000001</v>
       </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C289" s="1">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>2017</v>
       </c>
       <c r="B290" s="1">
         <v>0.20100000000000001</v>
       </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C290" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>2017</v>
       </c>
       <c r="B291" s="1">
         <v>0.224</v>
       </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C291" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>2017</v>
       </c>
       <c r="B292" s="1">
         <v>0.22900000000000001</v>
       </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C292" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>2017</v>
       </c>
       <c r="B293" s="1">
         <v>0.19800000000000001</v>
       </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C293" s="1">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>2017</v>
       </c>
       <c r="B294" s="1">
         <v>0.19500000000000001</v>
       </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C294" s="1">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>2017</v>
       </c>
       <c r="B295" s="1">
         <v>0.20399999999999999</v>
       </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C295" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>2017</v>
       </c>
       <c r="B296" s="1">
         <v>0.247</v>
       </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C296" s="1">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>2017</v>
       </c>
       <c r="B297" s="1">
         <v>0.184</v>
       </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C297" s="1">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>2017</v>
       </c>
       <c r="B298" s="1">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C298" s="1">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>2017</v>
       </c>
       <c r="B299" s="1">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C299" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>2017</v>
       </c>
       <c r="B300" s="1">
         <v>0.17399999999999999</v>
       </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C300" s="1">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>2017</v>
       </c>
       <c r="B301" s="1">
         <v>0.17299999999999999</v>
       </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C301" s="1">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>2017</v>
       </c>
       <c r="B302" s="1">
         <v>0.17399999999999999</v>
       </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C302" s="1">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>2017</v>
       </c>
       <c r="B303" s="1">
         <v>0.20100000000000001</v>
       </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C303" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>2017</v>
       </c>
       <c r="B304" s="1">
         <v>0.186</v>
       </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C304" s="1">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>2017</v>
       </c>
       <c r="B305" s="1">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C305" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>2017</v>
       </c>
       <c r="B306" s="1">
         <v>8.3000000000000004E-2</v>
       </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C306" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>2017</v>
       </c>
       <c r="B307" s="1">
         <v>0.26200000000000001</v>
       </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C307" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>2017</v>
       </c>
       <c r="B308" s="1">
         <v>0.25700000000000001</v>
       </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C308" s="1">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>2017</v>
       </c>
       <c r="B309" s="1">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C309" s="1">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>2017</v>
       </c>
       <c r="B310" s="1">
         <v>0.25900000000000001</v>
       </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C310" s="1">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>2017</v>
       </c>
       <c r="B311" s="1">
         <v>0.32100000000000001</v>
       </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C311" s="1">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>2017</v>
       </c>
       <c r="B312" s="1">
         <v>0.28299999999999997</v>
       </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C312" s="1">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>2017</v>
       </c>
       <c r="B313" s="1">
         <v>0.27300000000000002</v>
       </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C313" s="1">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>2017</v>
       </c>
       <c r="B314" s="1">
         <v>0.28399999999999997</v>
       </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C314" s="1">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>2017</v>
       </c>
       <c r="B315" s="1">
         <v>0.27300000000000002</v>
       </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C315" s="1">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>2017</v>
       </c>
       <c r="B316" s="1">
         <v>0.28699999999999998</v>
       </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C316" s="1">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>2017</v>
       </c>
       <c r="B317" s="1">
         <v>0.25800000000000001</v>
       </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C317" s="1">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>2017</v>
       </c>
       <c r="B318" s="1">
         <v>0.29599999999999999</v>
       </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C318" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>2017</v>
       </c>
       <c r="B319" s="1">
         <v>0.28399999999999997</v>
       </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C319" s="1">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>2017</v>
       </c>
       <c r="B320" s="1">
         <v>0.245</v>
       </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C320" s="1">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>2017</v>
       </c>
       <c r="B321" s="1">
         <v>0.26100000000000001</v>
       </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C321" s="1">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>2017</v>
       </c>
       <c r="B322" s="1">
         <v>0.19600000000000001</v>
       </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C322" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>2017</v>
       </c>
       <c r="B323" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C323" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>2017</v>
       </c>
       <c r="B324" s="1">
         <v>0.19900000000000001</v>
       </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C324" s="1">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>2017</v>
       </c>
       <c r="B325" s="1">
         <v>0.17899999999999999</v>
       </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C325" s="1">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>2017</v>
       </c>
       <c r="B326" s="1">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C326" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>2017</v>
       </c>
       <c r="B327" s="1">
         <v>0.19400000000000001</v>
       </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C327" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>2017</v>
       </c>
       <c r="B328" s="1">
         <v>0.189</v>
       </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C328" s="1">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>2017</v>
       </c>
       <c r="B329" s="1">
         <v>2.1999999999999999E-2</v>
       </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C329" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>2017</v>
       </c>
       <c r="B330" s="1">
         <v>0.19500000000000001</v>
       </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C330" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>2017</v>
       </c>
       <c r="B331" s="1">
         <v>0.19400000000000001</v>
       </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C331" s="1">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>2017</v>
       </c>
       <c r="B332" s="1">
         <v>0.186</v>
       </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C332" s="1">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>2017</v>
       </c>
       <c r="B333" s="1">
         <v>0.186</v>
       </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C333" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>2017</v>
       </c>
       <c r="B334" s="1">
         <v>0.19600000000000001</v>
       </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C334" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>2017</v>
       </c>
       <c r="B335" s="1">
         <v>0.19700000000000001</v>
       </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C335" s="1">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>2017</v>
       </c>
       <c r="B336" s="1">
         <v>0.22800000000000001</v>
       </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C336" s="1">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>2017</v>
       </c>
       <c r="B337" s="1">
         <v>0.24099999999999999</v>
       </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C337" s="1">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>2017</v>
       </c>
       <c r="B338" s="1">
         <v>0.221</v>
       </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C338" s="1">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>2017</v>
       </c>
       <c r="B339" s="1">
         <v>0.23100000000000001</v>
       </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C339" s="1">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>2017</v>
       </c>
       <c r="B340" s="1">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C340" s="1">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>2017</v>
       </c>
       <c r="B341" s="1">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C341" s="1">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>2017</v>
       </c>
       <c r="B342" s="1">
         <v>0.156</v>
       </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C342" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>2017</v>
       </c>
       <c r="B343" s="1">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C343" s="1">
+        <v>9.5500000000000007</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>2017</v>
       </c>
       <c r="B344" s="1">
         <v>0.26300000000000001</v>
       </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C344" s="1">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>2017</v>
       </c>
       <c r="B345" s="1">
         <v>0.23899999999999999</v>
       </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C345" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>2017</v>
       </c>
       <c r="B346" s="1">
         <v>0.26200000000000001</v>
       </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C346" s="1">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>2017</v>
       </c>
       <c r="B347" s="1">
         <v>0.25700000000000001</v>
       </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C347" s="1">
+        <v>9.65</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>2017</v>
       </c>
       <c r="B348" s="1">
         <v>0.19600000000000001</v>
       </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C348" s="1">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>2017</v>
       </c>
       <c r="B349" s="1">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C349" s="1">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>2017</v>
       </c>
       <c r="B350" s="1">
         <v>0.185</v>
       </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C350" s="1">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>2017</v>
       </c>
       <c r="B351" s="1">
         <v>0.17899999999999999</v>
       </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C351" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>2017</v>
       </c>
       <c r="B352" s="1">
         <v>0.19500000000000001</v>
       </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C352" s="1">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>2017</v>
       </c>
       <c r="B353" s="1">
         <v>0.17899999999999999</v>
       </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C353" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>2017</v>
       </c>
       <c r="B354" s="1">
         <v>0.20499999999999999</v>
       </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C354" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>2017</v>
       </c>
       <c r="B355" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C355" s="1">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>2017</v>
       </c>
       <c r="B356" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C356" s="1">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>2017</v>
       </c>
       <c r="B357" s="1">
         <v>0.19500000000000001</v>
       </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C357" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>2017</v>
       </c>
       <c r="B358" s="1">
         <v>0.217</v>
       </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C358" s="1">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>2017</v>
       </c>
       <c r="B359" s="1">
         <v>0.21099999999999999</v>
       </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C359" s="1">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>2017</v>
       </c>
       <c r="B360" s="1">
         <v>0.19800000000000001</v>
       </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C360" s="1">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>2017</v>
       </c>
       <c r="B361" s="1">
         <v>0.218</v>
       </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C361" s="1">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>2017</v>
       </c>
       <c r="B362" s="1">
         <v>0.23400000000000001</v>
       </c>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C362" s="1">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>2017</v>
       </c>
       <c r="B363" s="1">
         <v>0.14599999999999999</v>
       </c>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C363" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>2017</v>
       </c>
       <c r="B364" s="1">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C364" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>2017</v>
       </c>
       <c r="B365" s="1">
         <v>0.22800000000000001</v>
       </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C365" s="1">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>2017</v>
       </c>
       <c r="B366" s="1">
         <v>0.23100000000000001</v>
       </c>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C366" s="1">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>2017</v>
       </c>
       <c r="B367" s="1">
         <v>0.20699999999999999</v>
       </c>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C367" s="1">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>2017</v>
       </c>
       <c r="B368" s="1">
         <v>0.20799999999999999</v>
       </c>
-    </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C368" s="1">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>2017</v>
       </c>
       <c r="B369" s="1">
         <v>0.19500000000000001</v>
       </c>
-    </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C369" s="1">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>2017</v>
       </c>
       <c r="B370" s="1">
         <v>0.218</v>
       </c>
-    </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C370" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>2017</v>
       </c>
       <c r="B371" s="1">
         <v>0.22500000000000001</v>
       </c>
-    </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C371" s="1">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>2017</v>
       </c>
       <c r="B372" s="1">
         <v>0.20599999999999999</v>
       </c>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C372" s="1">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>2017</v>
       </c>
       <c r="B373" s="1">
         <v>0.22900000000000001</v>
       </c>
-    </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C373" s="1">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>2017</v>
       </c>
       <c r="B374" s="1">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C374" s="1">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>2017</v>
       </c>
       <c r="B375" s="1">
         <v>0.247</v>
       </c>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C375" s="1">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>2017</v>
       </c>
       <c r="B376" s="1">
         <v>0.24399999999999999</v>
       </c>
-    </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C376" s="1">
+        <v>8.65</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>2017</v>
       </c>
       <c r="B377" s="1">
         <v>0.23300000000000001</v>
       </c>
-    </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C377" s="1">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>2017</v>
       </c>
       <c r="B378" s="1">
         <v>0.22500000000000001</v>
       </c>
-    </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C378" s="1">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>2017</v>
       </c>
       <c r="B379" s="1">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C379" s="1">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>2017</v>
       </c>
       <c r="B380" s="1">
         <v>0.215</v>
       </c>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C380" s="1">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>2017</v>
       </c>
       <c r="B381" s="1">
         <v>0.182</v>
       </c>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C381" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>2017</v>
       </c>
       <c r="B382" s="1">
         <v>0.20899999999999999</v>
       </c>
-    </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C382" s="1">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>2017</v>
       </c>
       <c r="B383" s="1">
         <v>8.5999999999999993E-2</v>
       </c>
-    </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C383" s="1">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>2017</v>
       </c>
       <c r="B384" s="1">
         <v>0.10199999999999999</v>
       </c>
-    </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C384" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>2017</v>
       </c>
       <c r="B385" s="1">
         <v>0.20899999999999999</v>
       </c>
-    </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C385" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>2017</v>
       </c>
       <c r="B386" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C386" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>2017</v>
       </c>
       <c r="B387" s="1">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C387" s="1">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>2017</v>
       </c>
       <c r="B388" s="1">
         <v>0.19800000000000001</v>
       </c>
-    </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C388" s="1">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>2017</v>
       </c>
       <c r="B389" s="1">
         <v>0.23499999999999999</v>
       </c>
-    </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C389" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>2017</v>
       </c>
       <c r="B390" s="1">
         <v>0.216</v>
       </c>
-    </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C390" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>2017</v>
       </c>
       <c r="B391" s="1">
         <v>0.20599999999999999</v>
       </c>
-    </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C391" s="1">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>2017</v>
       </c>
       <c r="B392" s="1">
         <v>0.215</v>
       </c>
-    </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C392" s="1">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>2017</v>
       </c>
       <c r="B393" s="1">
         <v>0.223</v>
       </c>
-    </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C393" s="1">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>2017</v>
       </c>
       <c r="B394" s="1">
         <v>0.16700000000000001</v>
       </c>
-    </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C394" s="1">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>2017</v>
       </c>
       <c r="B395" s="1">
         <v>0.19400000000000001</v>
       </c>
-    </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C395" s="1">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>2017</v>
       </c>
       <c r="B396" s="1">
         <v>0.18099999999999999</v>
       </c>
-    </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C396" s="1">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>2017</v>
       </c>
       <c r="B397" s="1">
         <v>0.192</v>
       </c>
-    </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C397" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>2017</v>
       </c>
       <c r="B398" s="1">
         <v>0.20699999999999999</v>
       </c>
-    </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C398" s="1">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>2017</v>
       </c>
       <c r="B399" s="1">
         <v>0.21099999999999999</v>
       </c>
-    </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C399" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>2017</v>
       </c>
       <c r="B400" s="1">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C400" s="1">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>2017</v>
       </c>
       <c r="B401" s="1">
         <v>0.217</v>
       </c>
-    </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C401" s="1">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>2017</v>
       </c>
       <c r="B402" s="1">
         <v>0.17100000000000001</v>
       </c>
-    </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C402" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>2017</v>
       </c>
       <c r="B403" s="1">
         <v>0.13300000000000001</v>
       </c>
-    </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C403" s="1">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>2017</v>
       </c>
       <c r="B404" s="1">
         <v>0.24099999999999999</v>
       </c>
-    </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C404" s="1">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>2017</v>
       </c>
       <c r="B405" s="1">
         <v>0.214</v>
       </c>
-    </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C405" s="1">
+        <v>10.050000000000001</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>2017</v>
       </c>
       <c r="B406" s="1">
         <v>0.16500000000000001</v>
       </c>
-    </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C406" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>2017</v>
       </c>
       <c r="B407" s="1">
         <v>0.216</v>
       </c>
-    </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C407" s="1">
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>2017</v>
       </c>
       <c r="B408" s="1">
         <v>0.219</v>
       </c>
-    </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C408" s="1">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>2017</v>
       </c>
       <c r="B409" s="1">
         <v>0.13500000000000001</v>
       </c>
-    </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C409" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>2017</v>
       </c>
       <c r="B410" s="1">
         <v>0.20399999999999999</v>
       </c>
-    </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C410" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>2017</v>
       </c>
       <c r="B411" s="1">
         <v>0.218</v>
       </c>
-    </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C411" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>2017</v>
       </c>
       <c r="B412" s="1">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C412" s="1">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>2017</v>
       </c>
       <c r="B413" s="1">
         <v>0.125</v>
       </c>
-    </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C413" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>2017</v>
       </c>
       <c r="B414" s="1">
         <v>0.191</v>
       </c>
-    </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C414" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>2017</v>
       </c>
       <c r="B415" s="1">
         <v>0.216</v>
       </c>
-    </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C415" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>2017</v>
       </c>
       <c r="B416" s="1">
         <v>0.22600000000000001</v>
       </c>
-    </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C416" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>2017</v>
       </c>
       <c r="B417" s="1">
         <v>0.22900000000000001</v>
       </c>
-    </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C417" s="1">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>2017</v>
       </c>
       <c r="B418" s="1">
         <v>0.22600000000000001</v>
       </c>
-    </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C418" s="1">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>2017</v>
       </c>
       <c r="B419" s="1">
         <v>0.214</v>
       </c>
-    </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C419" s="1">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>2017</v>
       </c>
       <c r="B420" s="1">
         <v>0.14799999999999999</v>
       </c>
-    </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C420" s="1">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>2017</v>
       </c>
       <c r="B421" s="1">
         <v>0.217</v>
       </c>
-    </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C421" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>2017</v>
       </c>
       <c r="B422" s="1">
         <v>0.21099999999999999</v>
       </c>
-    </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C422" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>2017</v>
       </c>
       <c r="B423" s="1">
         <v>0.23599999999999999</v>
       </c>
-    </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C423" s="1">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>2017</v>
       </c>
       <c r="B424" s="1">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C424" s="1">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>2017</v>
       </c>
       <c r="B425" s="1">
         <v>0.29699999999999999</v>
       </c>
-    </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C425" s="1">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>2017</v>
       </c>
       <c r="B426" s="1">
         <v>0.29799999999999999</v>
       </c>
-    </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C426" s="1">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>2017</v>
       </c>
       <c r="B427" s="1">
         <v>0.33700000000000002</v>
       </c>
-    </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C427" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>2017</v>
       </c>
       <c r="B428" s="1">
         <v>0.28799999999999998</v>
       </c>
-    </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C428" s="1">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>2017</v>
       </c>
       <c r="B429" s="1">
         <v>0.28299999999999997</v>
       </c>
-    </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C429" s="1">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>2017</v>
       </c>
       <c r="B430" s="1">
         <v>0.307</v>
       </c>
-    </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C430" s="1">
+        <v>14.41</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>2017</v>
       </c>
       <c r="B431" s="1">
         <v>0.312</v>
       </c>
-    </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C431" s="1">
+        <v>12.57</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>2017</v>
       </c>
       <c r="B432" s="1">
         <v>0.32600000000000001</v>
       </c>
-    </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C432" s="1">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>2017</v>
       </c>
       <c r="B433" s="1">
         <v>0.152</v>
       </c>
-    </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C433" s="1">
+        <v>14.42</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>2017</v>
       </c>
       <c r="B434" s="1">
         <v>0.34200000000000003</v>
       </c>
-    </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C434" s="1">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>2017</v>
       </c>
       <c r="B435" s="1">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C435" s="1">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>2017</v>
       </c>
       <c r="B436" s="1">
         <v>0.29299999999999998</v>
       </c>
-    </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C436" s="1">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>2017</v>
       </c>
       <c r="B437" s="1">
         <v>0.27800000000000002</v>
       </c>
-    </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C437" s="1">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>2017</v>
       </c>
       <c r="B438" s="1">
         <v>0.14099999999999999</v>
       </c>
-    </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C438" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>2017</v>
       </c>
       <c r="B439" s="1">
         <v>0.28799999999999998</v>
       </c>
-    </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C439" s="1">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>2017</v>
       </c>
       <c r="B440" s="1">
         <v>0.30199999999999999</v>
       </c>
-    </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C440" s="1">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>2017</v>
       </c>
       <c r="B441" s="1">
         <v>0.29199999999999998</v>
       </c>
-    </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C441" s="1">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>2017</v>
       </c>
       <c r="B442" s="1">
         <v>0.312</v>
       </c>
-    </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C442" s="1">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>2017</v>
       </c>
       <c r="B443" s="1">
         <v>0.29699999999999999</v>
       </c>
-    </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C443" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>2017</v>
       </c>
       <c r="B444" s="1">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C444" s="1">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>2017</v>
       </c>
       <c r="B445" s="1">
         <v>0.30299999999999999</v>
       </c>
-    </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C445" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>2017</v>
       </c>
       <c r="B446" s="1">
         <v>0.27700000000000002</v>
       </c>
-    </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C446" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>2017</v>
       </c>
       <c r="B447" s="1">
         <v>0.32200000000000001</v>
       </c>
-    </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C447" s="1">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>2017</v>
       </c>
       <c r="B448" s="1">
         <v>0.28399999999999997</v>
       </c>
-    </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C448" s="1">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>2017</v>
       </c>
       <c r="B449" s="1">
         <v>0.248</v>
       </c>
-    </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C449" s="1">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>2017</v>
       </c>
       <c r="B450" s="1">
         <v>0.17699999999999999</v>
       </c>
-    </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C450" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>2017</v>
       </c>
       <c r="B451" s="1">
         <v>0.32600000000000001</v>
       </c>
-    </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C451" s="1">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>2017</v>
       </c>
       <c r="B452" s="1">
         <v>0.28199999999999997</v>
       </c>
-    </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C452" s="1">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>2017</v>
       </c>
       <c r="B453" s="1">
         <v>0.313</v>
       </c>
-    </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C453" s="1">
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>2017</v>
       </c>
       <c r="B454" s="1">
         <v>0.28100000000000003</v>
       </c>
-    </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C454" s="1">
+        <v>12.65</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>2017</v>
       </c>
       <c r="B455" s="1">
         <v>0.255</v>
       </c>
-    </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C455" s="1">
+        <v>11.75</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>2017</v>
       </c>
       <c r="B456" s="1">
         <v>0.29199999999999998</v>
       </c>
-    </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C456" s="1">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>2017</v>
       </c>
       <c r="B457" s="1">
         <v>0.315</v>
       </c>
-    </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C457" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>2017</v>
       </c>
       <c r="B458" s="1">
         <v>0.313</v>
       </c>
-    </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C458" s="1">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>2017</v>
       </c>
       <c r="B459" s="1">
         <v>0.309</v>
       </c>
-    </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C459" s="1">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>2017</v>
       </c>
       <c r="B460" s="1">
         <v>0.152</v>
       </c>
-    </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C460" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>2017</v>
       </c>
       <c r="B461" s="1">
         <v>0.32200000000000001</v>
       </c>
-    </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C461" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>2017</v>
       </c>
       <c r="B462" s="1">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C462" s="1">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>2017</v>
       </c>
       <c r="B463" s="1">
         <v>0.316</v>
       </c>
-    </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C463" s="1">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>2017</v>
       </c>
       <c r="B464" s="1">
         <v>0.30299999999999999</v>
       </c>
-    </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C464" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>2017</v>
       </c>
       <c r="B465" s="1">
         <v>0.26100000000000001</v>
       </c>
-    </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C465" s="1">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>2017</v>
       </c>
       <c r="B466" s="1">
         <v>0.29599999999999999</v>
       </c>
-    </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C466" s="1">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>2017</v>
       </c>
       <c r="B467" s="1">
         <v>0.35499999999999998</v>
       </c>
-    </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C467" s="1">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>2017</v>
       </c>
       <c r="B468" s="1">
         <v>0.32300000000000001</v>
       </c>
-    </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C468" s="1">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>2017</v>
       </c>
       <c r="B469" s="1">
         <v>0.33700000000000002</v>
       </c>
-    </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C469" s="1">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>2017</v>
       </c>
       <c r="B470" s="1">
         <v>0.32900000000000001</v>
       </c>
-    </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C470" s="1">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>2017</v>
       </c>
       <c r="B471" s="1">
         <v>0.26500000000000001</v>
       </c>
-    </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C471" s="1">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>2017</v>
       </c>
       <c r="B472" s="1">
         <v>0.32800000000000001</v>
       </c>
-    </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C472" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>2017</v>
       </c>
       <c r="B473" s="1">
         <v>0.29799999999999999</v>
       </c>
-    </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C473" s="1">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>2017</v>
       </c>
       <c r="B474" s="1">
         <v>0.29899999999999999</v>
       </c>
-    </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C474" s="1">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>2017</v>
       </c>
       <c r="B475" s="1">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C475" s="1">
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>2017</v>
       </c>
       <c r="B476" s="1">
         <v>0.30099999999999999</v>
       </c>
-    </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C476" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>2017</v>
       </c>
       <c r="B477" s="1">
         <v>0.28899999999999998</v>
       </c>
-    </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C477" s="1">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>2017</v>
       </c>
       <c r="B478" s="1">
         <v>0.32700000000000001</v>
       </c>
-    </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C478" s="1">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>2017</v>
       </c>
       <c r="B479" s="1">
         <v>0.28899999999999998</v>
       </c>
-    </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C479" s="1">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>2017</v>
       </c>
       <c r="B480" s="1">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C480" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>2017</v>
       </c>
       <c r="B481" s="1">
         <v>0.29499999999999998</v>
       </c>
-    </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C481" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>2017</v>
       </c>
       <c r="B482" s="1">
         <v>0.26900000000000002</v>
       </c>
-    </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C482" s="1">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>2017</v>
       </c>
       <c r="B483" s="1">
         <v>0.30199999999999999</v>
       </c>
-    </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C483" s="1">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>2017</v>
       </c>
       <c r="B484" s="1">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C484" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>2017</v>
       </c>
       <c r="B485" s="1">
         <v>7.9000000000000001E-2</v>
       </c>
-    </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C485" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>2017</v>
       </c>
       <c r="B486" s="1">
         <v>0.27800000000000002</v>
       </c>
-    </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C486" s="1">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>2017</v>
       </c>
       <c r="B487" s="1">
         <v>0.254</v>
       </c>
-    </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C487" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>2017</v>
       </c>
       <c r="B488" s="1">
         <v>0.29799999999999999</v>
+      </c>
+      <c r="C488" s="1">
+        <v>12.1</v>
       </c>
     </row>
   </sheetData>
